--- a/doc/02_外部設計/02_機能一覧_B3ビーチサンダル.xlsx
+++ b/doc/02_外部設計/02_機能一覧_B3ビーチサンダル.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27809"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seplus2016-my.sharepoint.com/personal/koyama-shoma-plusdojo2024_seplus2016_onmicrosoft_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="393" documentId="8_{5BD72A20-68E3-4103-8BA9-CBD91D7FC834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5668778-892B-4A79-815E-1EFC79131676}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5964CC14-8149-4457-BC22-B200C896935C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="93">
   <si>
     <t>チーム名</t>
     <rPh sb="3" eb="4">
@@ -55,6 +55,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>小山、髙木</t>
+  </si>
+  <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
       <t>ナ</t>
@@ -62,6 +65,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>KyoronP</t>
+  </si>
+  <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
       <t>サクセイビ</t>
@@ -179,9 +185,6 @@
     <t>Java</t>
   </si>
   <si>
-    <t>〇</t>
-  </si>
-  <si>
     <t>ログイン機能</t>
   </si>
   <si>
@@ -254,6 +257,9 @@
     <t>SearchServlet</t>
   </si>
   <si>
+    <t>ピン止めデータと、jspを表示する</t>
+  </si>
+  <si>
     <t>検索</t>
     <rPh sb="0" eb="2">
       <t>ケンサク</t>
@@ -272,9 +278,32 @@
   </si>
   <si>
     <t>マイページ表示</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページ表示</t>
   </si>
   <si>
     <t>MypageServlet</t>
+  </si>
+  <si>
+    <t>お客様の名前を入れたjspを表示する</t>
+    <rPh sb="1" eb="3">
+      <t>キャクサマ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>お客様情報編集</t>
@@ -418,9 +447,29 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>シミュレーション結果から得られた品目について自動生成したものを表示する</t>
+    <rPh sb="8" eb="10">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒンモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>発注リスト編集</t>
   </si>
   <si>
+    <t>その他の欄と期限を編集・保存する</t>
+    <rPh sb="6" eb="8">
+      <t>キゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>当日リスト画面</t>
   </si>
   <si>
@@ -431,10 +480,111 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>当日リストと現在時刻を表示する</t>
+    <rPh sb="6" eb="10">
+      <t>ゲンザイジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当日リスト作成・編集</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当日リストを作成し、時間を編集する</t>
+    <rPh sb="10" eb="12">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>打刻機能</t>
   </si>
   <si>
     <t>チェックをつけたときに、時間を取得し表示する</t>
+  </si>
+  <si>
+    <t>式後対応メニュー</t>
+    <rPh sb="0" eb="4">
+      <t>シキゴタイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AfterServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+  </si>
+  <si>
+    <t>ページ遷移</t>
+    <rPh sb="3" eb="5">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各ページにフォワードする</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>式後アンケート</t>
+    <rPh sb="0" eb="2">
+      <t>シキゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SurveyServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>式後アンケート作成</t>
+    <rPh sb="0" eb="2">
+      <t>シキゴ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーチェックを行い、問題なければデータ登録を行います。確認の警告を発する</t>
+    <rPh sb="28" eb="30">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ハッ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>報告書</t>
+    <rPh sb="0" eb="3">
+      <t>ホウコクショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ReportServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>報告書作成</t>
+    <rPh sb="0" eb="3">
+      <t>ホウコクショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>非同期処理は必要か？</t>
@@ -443,150 +593,6 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マイページ表示</t>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>お客様の名前を入れたjspを表示する</t>
-    <rPh sb="1" eb="3">
-      <t>キャクサマ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ピン止めデータと、jspを表示する</t>
-  </si>
-  <si>
-    <t>その他の欄と期限を編集・保存する</t>
-    <rPh sb="6" eb="8">
-      <t>キゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シミュレーション結果から得られた品目について自動生成したものを表示する</t>
-    <rPh sb="8" eb="10">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>エ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒンモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>当日リストと現在時刻を表示する</t>
-    <rPh sb="6" eb="10">
-      <t>ゲンザイジコク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>当日リストを作成し、時間を編集する</t>
-    <rPh sb="10" eb="12">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>当日リスト作成・編集</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>式後対応メニュー</t>
-    <rPh sb="0" eb="4">
-      <t>シキゴタイオウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ページ遷移</t>
-    <rPh sb="3" eb="5">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AfterServlet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>各ページにフォワードする</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>式後アンケート</t>
-    <rPh sb="0" eb="2">
-      <t>シキゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>報告書</t>
-    <rPh sb="0" eb="3">
-      <t>ホウコクショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SurveyServlet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ReportServlet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>式後アンケート作成</t>
-    <rPh sb="0" eb="2">
-      <t>シキゴ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>報告書作成</t>
-    <rPh sb="0" eb="3">
-      <t>ホウコクショ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エラーチェックを行い、問題なければデータ登録を行います。確認の警告を発する</t>
-    <rPh sb="28" eb="30">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ケイコク</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ハッ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -821,17 +827,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -848,10 +854,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1143,21 +1145,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" customWidth="1"/>
-    <col min="8" max="8" width="39.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="39.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
@@ -1170,65 +1172,69 @@
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
+      <c r="H2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="2:10">
       <c r="D3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="G3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="20">
+        <v>6</v>
+      </c>
+      <c r="H3" s="22">
         <v>45454</v>
       </c>
-      <c r="I3" s="19"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="2:10">
       <c r="G4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
+        <v>7</v>
+      </c>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
     </row>
     <row r="5" spans="2:10">
       <c r="G5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
+        <v>8</v>
+      </c>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
     </row>
     <row r="6" spans="2:10" ht="21">
       <c r="B6" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:10">
@@ -1236,53 +1242,47 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="26.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="26.45">
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="39.6">
@@ -1290,26 +1290,23 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="18">
@@ -1317,131 +1314,123 @@
         <v>4</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="26.4">
+        <v>23</v>
+      </c>
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" spans="2:10" ht="26.45">
       <c r="B12" s="7">
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="21" t="s">
         <v>33</v>
       </c>
+      <c r="H12" s="19" t="s">
+        <v>34</v>
+      </c>
       <c r="I12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>22</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="2:10" ht="18">
       <c r="B13" s="2">
         <v>6</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>22</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="2:10" ht="18">
       <c r="B14" s="7">
         <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>22</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="7">
         <v>8</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:10">
@@ -1449,23 +1438,23 @@
         <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="39.6">
@@ -1473,47 +1462,47 @@
         <v>11</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="26.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="26.45">
       <c r="B18" s="7">
         <v>13</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -1521,47 +1510,47 @@
         <v>14</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="26.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="26.45">
       <c r="B20" s="2">
         <v>15</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="21" spans="2:10">
@@ -1569,47 +1558,47 @@
         <v>16</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="26.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="26.45">
       <c r="B22" s="2">
         <v>17</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="23" spans="2:10">
@@ -1617,47 +1606,47 @@
         <v>18</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="26.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="26.45">
       <c r="B24" s="2">
         <v>19</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="25" spans="2:10">
@@ -1665,47 +1654,47 @@
         <v>20</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="26.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="26.45">
       <c r="B26" s="2">
         <v>21</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="27" spans="2:10">
@@ -1713,183 +1702,173 @@
         <v>22</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" ht="26.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="26.45">
       <c r="B28" s="2">
         <v>23</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I28" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" ht="26.4">
+    </row>
+    <row r="29" spans="2:10" ht="26.45">
       <c r="B29" s="2">
         <v>24</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J29" s="18" t="s">
-        <v>22</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="J29" s="18"/>
     </row>
     <row r="30" spans="2:10" ht="18">
       <c r="B30" s="2">
         <v>25</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J30" s="18" t="s">
-        <v>22</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="J30" s="18"/>
     </row>
     <row r="31" spans="2:10" ht="18">
       <c r="B31" s="2">
         <v>26</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J31" s="18" t="s">
-        <v>22</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="J31" s="18"/>
     </row>
     <row r="32" spans="2:10" ht="18">
       <c r="B32" s="2">
         <v>27</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J32" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" ht="26.4">
+        <v>35</v>
+      </c>
+      <c r="J32" s="18"/>
+    </row>
+    <row r="33" spans="2:10" ht="26.45">
       <c r="B33" s="2">
         <v>28</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J33" s="18" t="s">
-        <v>22</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="J33" s="18"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="2">
@@ -1900,19 +1879,22 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F34" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J34" t="s">
         <v>82</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="35" spans="2:10">
@@ -1924,19 +1906,22 @@
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="G35" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J35" t="s">
         <v>82</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="36" spans="2:10">
@@ -1944,47 +1929,47 @@
         <v>31</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>86</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" ht="26.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="26.45">
       <c r="B37" s="2">
         <v>32</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>86</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" s="22" t="s">
-        <v>90</v>
+        <v>33</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>88</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="2:10">
@@ -1992,52 +1977,52 @@
         <v>33</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" ht="26.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="26.45">
       <c r="B39" s="2">
         <v>34</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H39" s="22" t="s">
-        <v>90</v>
+        <v>33</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>88</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="2:10">
       <c r="G41" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
